--- a/doc/10 众包/02 任务单/20151104-01.xlsx
+++ b/doc/10 众包/02 任务单/20151104-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>任务编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,58 @@
         <charset val="134"/>
       </rPr>
       <t>删除菜单项</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller: MainMenuController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service: MainMenuService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ExtJS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>namespace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PSI.MainMenu</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -607,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C12"/>
+  <dimension ref="B2:C21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -645,57 +697,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="7" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="1">
-        <v>4.0999999999999996</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="1">
         <v>4.3</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="1">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="1">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
